--- a/data/output/FV2504_FV2410/UTILMD/44112.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44112.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5186" uniqueCount="409">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5207" uniqueCount="409">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1344,6 +1344,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U224" totalsRowShown="0">
+  <autoFilter ref="A1:U224"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1633,7 +1663,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12660,5 +12693,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44112.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44112.xlsx
@@ -2420,7 +2420,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -5000,7 +5000,7 @@
         <v>387</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5162,7 +5162,7 @@
         <v>388</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5566,7 +5566,7 @@
         <v>390</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5778,7 +5778,7 @@
         <v>393</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5998,7 +5998,7 @@
         <v>393</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6272,7 +6272,7 @@
         <v>394</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6492,7 +6492,7 @@
         <v>393</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6712,7 +6712,7 @@
         <v>396</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6858,7 +6858,7 @@
         <v>397</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -7058,7 +7058,7 @@
         <v>393</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7416,7 +7416,7 @@
         <v>393</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8214,7 +8214,7 @@
         <v>399</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8580,7 +8580,7 @@
         <v>401</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8992,7 +8992,7 @@
         <v>399</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9982,7 +9982,7 @@
         <v>390</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10386,7 +10386,7 @@
         <v>405</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10694,7 +10694,7 @@
         <v>393</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10842,7 +10842,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11268,7 +11268,7 @@
         <v>397</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11572,7 +11572,7 @@
         <v>407</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11884,7 +11884,7 @@
         <v>407</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -12416,7 +12416,7 @@
         <v>407</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12948,7 +12948,7 @@
         <v>407</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13480,7 +13480,7 @@
         <v>393</v>
       </c>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N222" s="2"/>
